--- a/results/merged_RJ_2025.08.19.xlsx
+++ b/results/merged_RJ_2025.08.19.xlsx
@@ -1232,10 +1232,10 @@
         <v>139.2238744451395</v>
       </c>
       <c r="BR2" s="2" t="n">
-        <v>0.1119818509726203</v>
+        <v>0.08130783330562236</v>
       </c>
       <c r="BS2" s="2" t="n">
-        <v>0.660295363478076</v>
+        <v>0.4794275579466651</v>
       </c>
       <c r="BT2" s="2" t="n">
         <v>0.07821498380970841</v>
@@ -1253,7 +1253,7 @@
         <v>0.200826015555391</v>
       </c>
       <c r="BY2" s="2" t="n">
-        <v>0.5897774079612956</v>
+        <v>0.4282258487195728</v>
       </c>
       <c r="BZ2" s="2" t="n">
         <v>2.665424235047427</v>
